--- a/biology/Zoologie/Crenatocetus/Crenatocetus.xlsx
+++ b/biology/Zoologie/Crenatocetus/Crenatocetus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Crenatocetus rayi
 Crenatocetus est un genre fossile de cétacés de la famille également fossile des Protocetidae. Une seule espèce fossile est connue, Crenatocetus rayi, qui a vécu lors de l’Éocène moyen.
@@ -512,13 +524,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Crenatocetus et l'espèce Crenatocetus rayi sont décrits par Mcleod (d) et Barnes (d) en 2008[1],[2]
-Étymologie
-L'épithète spécifique, rayi, a été donnée en l'honneur du paléontologue Clayton Edward Ray (d).
-Distribution
-Selon Paleobiology Database en 2023, l'espèce est représenté par une seule collection venant de la Caroline-du-Nord[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Crenatocetus et l'espèce Crenatocetus rayi sont décrits par Mcleod (d) et Barnes (d) en 2008,
 </t>
         </is>
       </c>
@@ -544,10 +554,86 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique, rayi, a été donnée en l'honneur du paléontologue Clayton Edward Ray (d).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Crenatocetus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Crenatocetus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Paleobiology Database en 2023, l'espèce est représenté par une seule collection venant de la Caroline-du-Nord.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Crenatocetus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Crenatocetus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
